--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,468 +512,638 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.99</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>005889</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>华夏新兴消费混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>91.99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>378010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>85.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519093</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华钻石品质企业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008166</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008167</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>288002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏收入混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001004</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新华稳健回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001088</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝国策导向混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005876</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>29.82</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000294</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安生态优先混合</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003754</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰普益灵活配置混合A</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.90</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003755</t>
+          <t>009888</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰普益灵活配置混合C</t>
+          <t>广发稳健优选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.90</t>
+          <t>34.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9311</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009619</t>
+          <t>000294</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时女性消费主题混合A</t>
+          <t>华安生态优先混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.60</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009620</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时女性消费主题混合C</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.60</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8453</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>960023</t>
+          <t>481004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银稳健成长混合H</t>
+          <t>工银稳健成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.35</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>008166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>工银瑞信消费行业股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>001088</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>华宝国策导向混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005877</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合C</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006013</t>
+          <t>001004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合A</t>
+          <t>新华稳健回报灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006014</t>
+          <t>006013</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合C</t>
+          <t>易方达鑫转招利混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>22.87</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>288002</t>
+          <t>009537</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏收入混合</t>
+          <t>太平行业优选股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>481004</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银稳健成长混合A</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001004</t>
+          <t>003754</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新华稳健回报灵活配置混合</t>
+          <t>国泰普益灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>009619</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>博时女性消费主题混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>009538</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>太平行业优选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>003755</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>国泰普益灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008166</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票A</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>005877</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>易方达鑫转增利混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>006014</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>易方达鑫转招利混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1752,15 +2202,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>88.57</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009537</t>
+          <t>009620</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太平行业优选股票A</t>
+          <t>博时女性消费主题混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,26 +2268,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009538</t>
+          <t>960023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太平行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2276,7 +2277,6 @@
           <t>工银稳健成长混合H</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>94.35</t>
@@ -2292,6 +2292,708 @@
       </c>
       <c r="H30" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2999,4 +3000,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3322,4 +3323,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -3347,12 +3347,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3331,7 +3332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3342,17 +3343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3362,14 +3383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3378,14 +3421,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.26</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -3394,14 +3527,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>10.4</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="5">
@@ -3410,13 +3543,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,6 +455,576 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -506,36 +1076,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>49.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7914</t>
+          <t>2.2545</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -544,36 +1114,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>288002</t>
+          <t>000294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏收入混合</t>
+          <t>华安生态优先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.9332</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -582,36 +1152,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>378010</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.01</t>
+          <t>26.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.06</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4962</t>
+          <t>0.7219</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -630,26 +1200,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4229</t>
+          <t>0.2112</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -658,36 +1228,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>88.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3218</t>
+          <t>0.1984</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -696,36 +1266,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2936</t>
+          <t>0.1674</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -734,36 +1304,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>001443</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>易方达瑞选灵活配置混合I</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>27.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1549</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -772,36 +1342,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>001444</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>易方达瑞选灵活配置混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>27.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1477</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -810,32 +1380,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>006013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>易方达鑫转招利混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>29.48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1069</t>
+          <t>0.1100</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -848,36 +1418,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006013</t>
+          <t>010457</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合A</t>
+          <t>广发睿鑫混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0982</t>
+          <t>0.1047</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -896,26 +1466,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0678</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -924,36 +1494,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0590</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -962,36 +1532,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005955</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合A</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1000,36 +1570,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1038,36 +1608,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005877</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合C</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1076,36 +1646,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006014</t>
+          <t>010458</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合C</t>
+          <t>广发睿鑫混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1114,36 +1684,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005956</t>
+          <t>006014</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合C</t>
+          <t>易方达鑫转招利混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>29.48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2359,36 +2929,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.99</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2545</t>
+          <t>0.7914</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2397,36 +2967,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000294</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安生态优先混合</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.74</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>89.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9332</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2435,36 +3005,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>288002</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏收入混合</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7219</t>
+          <t>0.4962</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2483,26 +3053,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2112</t>
+          <t>0.4229</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2511,36 +3081,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1984</t>
+          <t>0.3218</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2549,36 +3119,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1674</t>
+          <t>0.2936</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2587,36 +3157,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001443</t>
+          <t>001088</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达瑞选灵活配置混合I</t>
+          <t>华宝国策导向混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27.73</t>
+          <t>87.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.1549</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2625,36 +3195,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001444</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达瑞选灵活配置混合E</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.73</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.1477</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2663,32 +3233,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006013</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合A</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.48</t>
+          <t>89.54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1100</t>
+          <t>0.1069</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2701,36 +3271,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010457</t>
+          <t>006013</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发睿鑫混合A</t>
+          <t>易方达鑫转招利混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>29.72</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1047</t>
+          <t>0.0982</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2749,26 +3319,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0907</t>
+          <t>0.0678</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2777,36 +3347,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.0590</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2815,36 +3385,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>005955</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>易方达鑫转添利混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2853,36 +3423,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2891,36 +3461,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>005877</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>易方达鑫转增利混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2929,36 +3499,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010458</t>
+          <t>006014</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发睿鑫混合C</t>
+          <t>易方达鑫转招利混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>29.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2967,606 +3537,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006014</t>
+          <t>005956</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达鑫转招利混合C</t>
+          <t>易方达鑫转添利混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.48</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>870009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6972</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1047</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>872019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519093</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新华钻石品质企业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005313</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0919</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300132-青松股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.26</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>10.4</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.77</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>工银灵活配置混合B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>71.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>工银灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>71.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -698,6 +713,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1019,7 +1166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1721,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2872,7 +3019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
